--- a/final_data_pipeline/output/311613_elec_options.xlsx
+++ b/final_data_pipeline/output/311613_elec_options.xlsx
@@ -3572,7 +3572,7 @@
         <v>110</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE30">
         <v>8000</v>
@@ -3667,7 +3667,7 @@
         <v>110</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE31">
         <v>8000</v>
@@ -3762,7 +3762,7 @@
         <v>110</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3857,7 +3857,7 @@
         <v>110</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -3952,7 +3952,7 @@
         <v>110</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -4047,7 +4047,7 @@
         <v>110</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4142,7 +4142,7 @@
         <v>110</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4237,7 +4237,7 @@
         <v>110</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4332,7 +4332,7 @@
         <v>110</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4427,7 +4427,7 @@
         <v>110</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4522,7 +4522,7 @@
         <v>110</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4617,7 +4617,7 @@
         <v>110</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4712,7 +4712,7 @@
         <v>110</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -4807,7 +4807,7 @@
         <v>110</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -4902,7 +4902,7 @@
         <v>110</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4997,7 +4997,7 @@
         <v>110</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -5092,7 +5092,7 @@
         <v>110</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5187,7 +5187,7 @@
         <v>110</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -5282,7 +5282,7 @@
         <v>110</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5377,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5472,7 +5472,7 @@
         <v>110</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5567,7 +5567,7 @@
         <v>110</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5662,7 +5662,7 @@
         <v>110</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5757,7 +5757,7 @@
         <v>110</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5852,7 +5852,7 @@
         <v>110</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5947,7 +5947,7 @@
         <v>110</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6042,7 +6042,7 @@
         <v>110</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6137,7 +6137,7 @@
         <v>110</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6232,7 +6232,7 @@
         <v>110</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6327,7 +6327,7 @@
         <v>110</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6422,7 +6422,7 @@
         <v>110</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6517,7 +6517,7 @@
         <v>110</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -9272,7 +9272,7 @@
         <v>110</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE90">
         <v>8000</v>
@@ -9367,7 +9367,7 @@
         <v>110</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE91">
         <v>8000</v>
@@ -9462,7 +9462,7 @@
         <v>110</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9557,7 +9557,7 @@
         <v>110</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9652,7 +9652,7 @@
         <v>110</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9747,7 +9747,7 @@
         <v>110</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9842,7 +9842,7 @@
         <v>110</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9937,7 +9937,7 @@
         <v>110</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -10032,7 +10032,7 @@
         <v>110</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -10127,7 +10127,7 @@
         <v>110</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -10222,7 +10222,7 @@
         <v>110</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -10317,7 +10317,7 @@
         <v>110</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -10507,7 +10507,7 @@
         <v>110</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10602,7 +10602,7 @@
         <v>110</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10697,7 +10697,7 @@
         <v>110</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -11172,7 +11172,7 @@
         <v>110</v>
       </c>
       <c r="AD110">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE110">
         <v>8000</v>
@@ -11267,7 +11267,7 @@
         <v>110</v>
       </c>
       <c r="AD111">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE111">
         <v>8000</v>
@@ -11362,7 +11362,7 @@
         <v>110</v>
       </c>
       <c r="AD112">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE112">
         <v>8000</v>
@@ -11457,7 +11457,7 @@
         <v>110</v>
       </c>
       <c r="AD113">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE113">
         <v>8000</v>
@@ -11552,7 +11552,7 @@
         <v>110</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE114">
         <v>8000</v>
@@ -11647,7 +11647,7 @@
         <v>110</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE115">
         <v>8000</v>
@@ -11742,7 +11742,7 @@
         <v>110</v>
       </c>
       <c r="AD116">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE116">
         <v>8000</v>
@@ -11837,7 +11837,7 @@
         <v>110</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -11932,7 +11932,7 @@
         <v>110</v>
       </c>
       <c r="AD118">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE118">
         <v>8000</v>
@@ -12027,7 +12027,7 @@
         <v>110</v>
       </c>
       <c r="AD119">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE119">
         <v>8000</v>
@@ -12122,7 +12122,7 @@
         <v>110</v>
       </c>
       <c r="AD120">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE120">
         <v>8000</v>
@@ -12217,7 +12217,7 @@
         <v>110</v>
       </c>
       <c r="AD121">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE121">
         <v>8000</v>
@@ -14212,7 +14212,7 @@
         <v>110</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -14307,7 +14307,7 @@
         <v>110</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE143">
         <v>8000</v>
@@ -14402,7 +14402,7 @@
         <v>110</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE144">
         <v>8000</v>
@@ -14497,7 +14497,7 @@
         <v>110</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE145">
         <v>8000</v>
@@ -14592,7 +14592,7 @@
         <v>110</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -14687,7 +14687,7 @@
         <v>110</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -14782,7 +14782,7 @@
         <v>110</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -14877,7 +14877,7 @@
         <v>110</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -14972,7 +14972,7 @@
         <v>110</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -15067,7 +15067,7 @@
         <v>110</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -15162,7 +15162,7 @@
         <v>110</v>
       </c>
       <c r="AD152">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE152">
         <v>8000</v>
@@ -15257,7 +15257,7 @@
         <v>110</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE153">
         <v>8000</v>
@@ -15352,7 +15352,7 @@
         <v>110</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE154">
         <v>8000</v>
@@ -15447,7 +15447,7 @@
         <v>110</v>
       </c>
       <c r="AD155">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE155">
         <v>8000</v>
@@ -15542,7 +15542,7 @@
         <v>110</v>
       </c>
       <c r="AD156">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE156">
         <v>8000</v>
@@ -15637,7 +15637,7 @@
         <v>110</v>
       </c>
       <c r="AD157">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE157">
         <v>8000</v>
@@ -15732,7 +15732,7 @@
         <v>110</v>
       </c>
       <c r="AD158">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE158">
         <v>8000</v>
@@ -15827,7 +15827,7 @@
         <v>110</v>
       </c>
       <c r="AD159">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE159">
         <v>8000</v>
@@ -15922,7 +15922,7 @@
         <v>110</v>
       </c>
       <c r="AD160">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE160">
         <v>8000</v>
@@ -16017,7 +16017,7 @@
         <v>110</v>
       </c>
       <c r="AD161">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="AE161">
         <v>8000</v>
@@ -16112,7 +16112,7 @@
         <v>110</v>
       </c>
       <c r="AD162">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE162">
         <v>8000</v>
@@ -16207,7 +16207,7 @@
         <v>110</v>
       </c>
       <c r="AD163">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE163">
         <v>8000</v>
@@ -16302,7 +16302,7 @@
         <v>110</v>
       </c>
       <c r="AD164">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE164">
         <v>8000</v>
@@ -16397,7 +16397,7 @@
         <v>110</v>
       </c>
       <c r="AD165">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE165">
         <v>8000</v>
@@ -16492,7 +16492,7 @@
         <v>110</v>
       </c>
       <c r="AD166">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE166">
         <v>8000</v>
@@ -16587,7 +16587,7 @@
         <v>110</v>
       </c>
       <c r="AD167">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE167">
         <v>8000</v>
@@ -16682,7 +16682,7 @@
         <v>110</v>
       </c>
       <c r="AD168">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE168">
         <v>8000</v>
@@ -16777,7 +16777,7 @@
         <v>110</v>
       </c>
       <c r="AD169">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE169">
         <v>8000</v>
@@ -17632,7 +17632,7 @@
         <v>110</v>
       </c>
       <c r="AD178">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE178">
         <v>8000</v>
@@ -17727,7 +17727,7 @@
         <v>110</v>
       </c>
       <c r="AD179">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE179">
         <v>8000</v>
@@ -17822,7 +17822,7 @@
         <v>110</v>
       </c>
       <c r="AD180">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE180">
         <v>8000</v>
@@ -17917,7 +17917,7 @@
         <v>110</v>
       </c>
       <c r="AD181">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE181">
         <v>8000</v>
@@ -18012,7 +18012,7 @@
         <v>110</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE182">
         <v>8000</v>
@@ -18107,7 +18107,7 @@
         <v>110</v>
       </c>
       <c r="AD183">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE183">
         <v>8000</v>
@@ -18202,7 +18202,7 @@
         <v>110</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE184">
         <v>8000</v>
@@ -18297,7 +18297,7 @@
         <v>110</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE185">
         <v>8000</v>
